--- a/Assembly Manuals/DUET_6HC_wiring.xlsx
+++ b/Assembly Manuals/DUET_6HC_wiring.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>POWER IN</t>
   </si>
@@ -144,9 +144,6 @@
     <t>24V Led lights</t>
   </si>
   <si>
-    <t>24V Blower radial fan for part cooling</t>
-  </si>
-  <si>
     <t>24V electronics cooling fan (side skirts)</t>
   </si>
   <si>
@@ -190,6 +187,18 @@
   </si>
   <si>
     <t>three wires  (3.3v)+(io4.in)signal (GND)-</t>
+  </si>
+  <si>
+    <t>OUT  6</t>
+  </si>
+  <si>
+    <t>two wires (V_OUTLC1)+ (out6)-</t>
+  </si>
+  <si>
+    <t>24V LEFT SIDE Blower radial fan for part cooling</t>
+  </si>
+  <si>
+    <t>24V RIGHT SIDE Blower radial fan for part cooling</t>
   </si>
 </sst>
 </file>
@@ -273,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,6 +295,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -301,13 +313,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>61333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -623,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -641,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>16</v>
@@ -652,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>16</v>
@@ -663,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>17</v>
@@ -777,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>26</v>
@@ -799,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>30</v>
@@ -810,7 +822,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>32</v>
@@ -842,74 +854,80 @@
         <v>36</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
-    </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9"/>
@@ -920,6 +938,11 @@
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
